--- a/DataFolder/River_1-24_O/LaneMapReport.xlsx
+++ b/DataFolder/River_1-24_O/LaneMapReport.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="53">
   <si>
-    <t>KTC Topography Report Lanes  23 - 24</t>
+    <t>ABC Bowling Center Lanes  23 - 24</t>
   </si>
   <si>
     <t>Center</t>

--- a/DataFolder/River_1-24_O/LaneMapReport.xlsx
+++ b/DataFolder/River_1-24_O/LaneMapReport.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="53">
   <si>
-    <t>ABC Bowling Center Lanes  23 - 24</t>
+    <t>KTC Topography Report Lanes  23 - 24</t>
   </si>
   <si>
     <t>Center</t>
